--- a/data/trans_orig/P5709-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5709-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>445248</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>414236</v>
+        <v>413062</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>477521</v>
+        <v>476150</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4315572754835756</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4014991322749127</v>
+        <v>0.4003613520639481</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4628383498762892</v>
+        <v>0.4615092570152264</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>511</v>
@@ -765,19 +765,19 @@
         <v>512245</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>476546</v>
+        <v>474352</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>543708</v>
+        <v>545091</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3895067952202951</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3623614635013013</v>
+        <v>0.3606930125313476</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.413430982863163</v>
+        <v>0.4144825351448506</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>968</v>
@@ -786,19 +786,19 @@
         <v>957493</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>916257</v>
+        <v>908194</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1009559</v>
+        <v>1003244</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4079931533127537</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3904224195375142</v>
+        <v>0.3869867473356116</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4301790913168179</v>
+        <v>0.4274881633119438</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>278646</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>253382</v>
+        <v>249489</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>308247</v>
+        <v>306417</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.270078326378388</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2455915617109132</v>
+        <v>0.2418175485030098</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2987689943332266</v>
+        <v>0.2969949887514609</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>299</v>
@@ -836,19 +836,19 @@
         <v>303504</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>273416</v>
+        <v>277169</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>333581</v>
+        <v>335268</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.230781766473791</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2079031741578979</v>
+        <v>0.2107568310613019</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2536521210319955</v>
+        <v>0.254934816056001</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>574</v>
@@ -857,19 +857,19 @@
         <v>582150</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>540301</v>
+        <v>540364</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>621358</v>
+        <v>626615</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2480574378489997</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2302252350903679</v>
+        <v>0.2302522735525243</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.264764229793691</v>
+        <v>0.2670043046819323</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>215634</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>193034</v>
+        <v>190626</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>241275</v>
+        <v>239172</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2090033070496181</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.187098681372947</v>
+        <v>0.1847650061040344</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2338561883704709</v>
+        <v>0.2318179683355301</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>310</v>
@@ -907,19 +907,19 @@
         <v>318888</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>287037</v>
+        <v>289794</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>352036</v>
+        <v>353413</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2424792144750858</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2182599556300712</v>
+        <v>0.2203567423055379</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2676847976733097</v>
+        <v>0.2687320692970416</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>527</v>
@@ -928,19 +928,19 @@
         <v>534521</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>496846</v>
+        <v>494848</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>575348</v>
+        <v>572745</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2277624357780876</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2117088161689149</v>
+        <v>0.2108575115333306</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2451590754629971</v>
+        <v>0.244049983539902</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>71689</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57433</v>
+        <v>58063</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90411</v>
+        <v>90238</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0694849942823778</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05566684006823917</v>
+        <v>0.05627816379570821</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08763138115016042</v>
+        <v>0.08746339962947071</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>135</v>
@@ -978,19 +978,19 @@
         <v>142284</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>120502</v>
+        <v>121121</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>166333</v>
+        <v>165725</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1081911394455207</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09162887576786624</v>
+        <v>0.09209924927333651</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.126478156830281</v>
+        <v>0.1260160548114825</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>205</v>
@@ -999,19 +999,19 @@
         <v>213973</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>185263</v>
+        <v>187512</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>241944</v>
+        <v>244646</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09117502796749395</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07894152505694398</v>
+        <v>0.07990006425664969</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1030935882962416</v>
+        <v>0.1042452352199501</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>20507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12953</v>
+        <v>12822</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>32062</v>
+        <v>31671</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01987609680604049</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01255442595241372</v>
+        <v>0.01242791776725445</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03107596532439395</v>
+        <v>0.03069736476802948</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>36</v>
@@ -1049,19 +1049,19 @@
         <v>38192</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27109</v>
+        <v>27274</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>52348</v>
+        <v>51565</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02904108438530741</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02061349334831725</v>
+        <v>0.02073859041212966</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03980511286182665</v>
+        <v>0.03920957900026111</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>55</v>
@@ -1070,19 +1070,19 @@
         <v>58699</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>43622</v>
+        <v>44390</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>76981</v>
+        <v>75627</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0250119450926651</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01858757027928174</v>
+        <v>0.01891473891513681</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03280226188671605</v>
+        <v>0.03222530764483934</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>1030134</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>989378</v>
+        <v>990592</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1068487</v>
+        <v>1072587</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6083184293631059</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5842509996827392</v>
+        <v>0.5849675602020451</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.63096682779691</v>
+        <v>0.6333876260294303</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>879</v>
@@ -1195,19 +1195,19 @@
         <v>885209</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>842431</v>
+        <v>845145</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>921912</v>
+        <v>927205</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5579556900836232</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5309924967562001</v>
+        <v>0.5327032186487434</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5810896836919303</v>
+        <v>0.584425967520587</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1872</v>
@@ -1216,19 +1216,19 @@
         <v>1915343</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1850176</v>
+        <v>1856478</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1970309</v>
+        <v>1970821</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5839577000559026</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5640891358316258</v>
+        <v>0.5660107111732161</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6007158856502155</v>
+        <v>0.6008720942446788</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>412534</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>377852</v>
+        <v>376359</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>451504</v>
+        <v>447234</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2436111054528955</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.223130521163066</v>
+        <v>0.222248872655378</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2666238570871301</v>
+        <v>0.2641019452919361</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>371</v>
@@ -1266,19 +1266,19 @@
         <v>377428</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>341829</v>
+        <v>339039</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>412631</v>
+        <v>411676</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2378963828158258</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2154580723040188</v>
+        <v>0.2136995346071002</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2600851372983599</v>
+        <v>0.2594832151103283</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>780</v>
@@ -1287,19 +1287,19 @@
         <v>789962</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>743956</v>
+        <v>743212</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>839934</v>
+        <v>841248</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.240846863213115</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2268204817676847</v>
+        <v>0.2265934696768981</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.256082592153537</v>
+        <v>0.2564832541608241</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>195801</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>171368</v>
+        <v>169848</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>224479</v>
+        <v>223259</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1156250458677187</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1011968526721239</v>
+        <v>0.1002991027765932</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1325599318722691</v>
+        <v>0.1318395318806592</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>226</v>
@@ -1337,19 +1337,19 @@
         <v>238608</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>212129</v>
+        <v>210946</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>268499</v>
+        <v>268533</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1503968038190811</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1337072272327396</v>
+        <v>0.1329610128370514</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1692376728737052</v>
+        <v>0.1692590027440812</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>422</v>
@@ -1358,19 +1358,19 @@
         <v>434409</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>395799</v>
+        <v>401920</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>476279</v>
+        <v>477935</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1324443332040971</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1206728975289409</v>
+        <v>0.1225390933019136</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1452100297705407</v>
+        <v>0.1457147716509682</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>48185</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35273</v>
+        <v>34514</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62137</v>
+        <v>62905</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02845435658180959</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02082947950595902</v>
+        <v>0.02038124240101494</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03669364177916424</v>
+        <v>0.03714695269508475</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -1408,19 +1408,19 @@
         <v>73846</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57108</v>
+        <v>57147</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>93330</v>
+        <v>93270</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04654573311803521</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03599554036677016</v>
+        <v>0.03602046465323233</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05882652894403492</v>
+        <v>0.05878884631953342</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>112</v>
@@ -1429,19 +1429,19 @@
         <v>122031</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>100572</v>
+        <v>101600</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>147631</v>
+        <v>145477</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03720525323474891</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03066283749405803</v>
+        <v>0.03097620763818438</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04501030832081627</v>
+        <v>0.04435351012846753</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>6759</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2641</v>
+        <v>2604</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14768</v>
+        <v>15590</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003991062734470346</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001559806819198397</v>
+        <v>0.001537917792229997</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008721112850315791</v>
+        <v>0.009206489955574713</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1479,19 +1479,19 @@
         <v>11432</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5862</v>
+        <v>5535</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20081</v>
+        <v>20648</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007205390163434602</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003694686358681669</v>
+        <v>0.003488456577146703</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01265713368354489</v>
+        <v>0.01301488234889527</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -1500,19 +1500,19 @@
         <v>18190</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10381</v>
+        <v>10862</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29822</v>
+        <v>29428</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005545850292136353</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003164898634903849</v>
+        <v>0.003311699616148911</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009092310574248887</v>
+        <v>0.008972073991865018</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>337740</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>313174</v>
+        <v>313144</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>360315</v>
+        <v>361204</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6137126372168891</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5690732734995884</v>
+        <v>0.5690182923351018</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6547337121280692</v>
+        <v>0.6563492419519315</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>266</v>
@@ -1625,19 +1625,19 @@
         <v>278632</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>255804</v>
+        <v>256080</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>298589</v>
+        <v>300432</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5848541619752561</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5369395134842703</v>
+        <v>0.5375185053522793</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6267462430315661</v>
+        <v>0.630614805809161</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>591</v>
@@ -1646,19 +1646,19 @@
         <v>616372</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>583080</v>
+        <v>585230</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>644673</v>
+        <v>654203</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6003221200298584</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5678971157011181</v>
+        <v>0.5699908669041897</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6278863381886189</v>
+        <v>0.6371679446551901</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>129978</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>110812</v>
+        <v>111397</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>152899</v>
+        <v>150800</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.236184403176578</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.20135721830824</v>
+        <v>0.2024215349697752</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2778355055001797</v>
+        <v>0.2740200960529535</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>117</v>
@@ -1696,19 +1696,19 @@
         <v>123897</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>105167</v>
+        <v>104302</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>143842</v>
+        <v>144079</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.260062307304735</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2207484811786946</v>
+        <v>0.2189329916573381</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3019269492628454</v>
+        <v>0.3024255602951659</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>239</v>
@@ -1717,19 +1717,19 @@
         <v>253875</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>226478</v>
+        <v>227463</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>284239</v>
+        <v>284660</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2472639034946364</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2205804930515421</v>
+        <v>0.2215398722884518</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2768379273290779</v>
+        <v>0.2772474581351926</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>65855</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>50914</v>
+        <v>51260</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>82348</v>
+        <v>84583</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1196652805643043</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09251635338724003</v>
+        <v>0.09314579563111236</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1496350052657597</v>
+        <v>0.1536974525029023</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>48</v>
@@ -1767,19 +1767,19 @@
         <v>51110</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38339</v>
+        <v>38117</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>65345</v>
+        <v>66053</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1072815893724997</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08047504106647117</v>
+        <v>0.08000883098868795</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1371602299582104</v>
+        <v>0.138646860427026</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>110</v>
@@ -1788,19 +1788,19 @@
         <v>116965</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>97881</v>
+        <v>97094</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>137074</v>
+        <v>140067</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1139191686039776</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09533226387168683</v>
+        <v>0.0945659108632699</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1335045664147458</v>
+        <v>0.1364200789745336</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>14998</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7841</v>
+        <v>8121</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24498</v>
+        <v>25706</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02725219687996349</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01424763690894862</v>
+        <v>0.01475687065136106</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04451586359665206</v>
+        <v>0.0467106809590597</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -1838,19 +1838,19 @@
         <v>21766</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13263</v>
+        <v>14218</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33195</v>
+        <v>32806</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04568723652308947</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02784002095479632</v>
+        <v>0.0298432354869016</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06967659732999634</v>
+        <v>0.06886086832242025</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -1859,19 +1859,19 @@
         <v>36763</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25936</v>
+        <v>25435</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50988</v>
+        <v>51477</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03580617324628035</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02526075223512733</v>
+        <v>0.02477224222897089</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04966052746511365</v>
+        <v>0.05013671765986999</v>
       </c>
     </row>
     <row r="20">
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5477</v>
+        <v>5966</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00318548216226523</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009953108770915303</v>
+        <v>0.01084069850761264</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5101</v>
+        <v>6066</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002114704824419855</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01070796273422991</v>
+        <v>0.01273268131549295</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1930,19 +1930,19 @@
         <v>2761</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8257</v>
+        <v>7451</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002688634625247192</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0008450938404238152</v>
+        <v>0.0008486391669094966</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008041918770511582</v>
+        <v>0.007257400258129534</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>1813122</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1755196</v>
+        <v>1752352</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1870034</v>
+        <v>1865965</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.553547488814082</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5358624888686638</v>
+        <v>0.5349944704638598</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5709225968277061</v>
+        <v>0.5696803305672674</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1656</v>
@@ -2055,19 +2055,19 @@
         <v>1676085</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1618617</v>
+        <v>1617623</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1735340</v>
+        <v>1734407</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4961701200567525</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4791578887211184</v>
+        <v>0.4788633909321318</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5137110715066606</v>
+        <v>0.5134351123293742</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3431</v>
@@ -2076,19 +2076,19 @@
         <v>3489208</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3408214</v>
+        <v>3409927</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3574939</v>
+        <v>3576635</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5244164656440657</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5122433432634054</v>
+        <v>0.5125009128324484</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.537301677013737</v>
+        <v>0.5375565783233959</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>821158</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>774642</v>
+        <v>777931</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>874426</v>
+        <v>879405</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2507001117288497</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.236498617197951</v>
+        <v>0.2375030174537585</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2669627534875254</v>
+        <v>0.2684830486874449</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>787</v>
@@ -2126,19 +2126,19 @@
         <v>804829</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>752858</v>
+        <v>757901</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>853885</v>
+        <v>855347</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2382526782156029</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2228679382999394</v>
+        <v>0.224360662375688</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2527749387969442</v>
+        <v>0.2532074912951293</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1593</v>
@@ -2147,19 +2147,19 @@
         <v>1625986</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1556026</v>
+        <v>1555280</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1697301</v>
+        <v>1690731</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2443804340940103</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2338656035477362</v>
+        <v>0.2337534862246643</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2550987376223641</v>
+        <v>0.254111257231331</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>477289</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>436874</v>
+        <v>438829</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>521565</v>
+        <v>516647</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1457166836219165</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1333780209467212</v>
+        <v>0.1339749202094583</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.159234313309646</v>
+        <v>0.1577325919507715</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>584</v>
@@ -2197,19 +2197,19 @@
         <v>608605</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>563648</v>
+        <v>567847</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>656565</v>
+        <v>656309</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1801649416248685</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1668562485098037</v>
+        <v>0.1680991244949623</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1943623398860848</v>
+        <v>0.1942867180383367</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1059</v>
@@ -2218,19 +2218,19 @@
         <v>1085894</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1025798</v>
+        <v>1026162</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1143332</v>
+        <v>1151305</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1632063842440369</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1541740152113168</v>
+        <v>0.1542287214999166</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1718390185363097</v>
+        <v>0.1730373907189645</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>134872</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>114438</v>
+        <v>114320</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>161086</v>
+        <v>160378</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04117644273769751</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03493795347777107</v>
+        <v>0.03490198869642875</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04917958587625428</v>
+        <v>0.04896352619083821</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>222</v>
@@ -2268,19 +2268,19 @@
         <v>237895</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>207958</v>
+        <v>207301</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>270018</v>
+        <v>269100</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07042392909040042</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06156154729900224</v>
+        <v>0.06136701478183304</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07993324089126931</v>
+        <v>0.07966141440328954</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>352</v>
@@ -2289,19 +2289,19 @@
         <v>372767</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>335924</v>
+        <v>333199</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>413846</v>
+        <v>415422</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05602566327635258</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05048825246350092</v>
+        <v>0.05007874128431077</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06219976099793848</v>
+        <v>0.06243660616897728</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>29018</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>19612</v>
+        <v>18621</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>42581</v>
+        <v>40929</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008859273097454295</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005987703417379453</v>
+        <v>0.005685027627285255</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01299989163943089</v>
+        <v>0.01249572146758911</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>47</v>
@@ -2339,19 +2339,19 @@
         <v>50631</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>37043</v>
+        <v>37843</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>67472</v>
+        <v>68616</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01498833101237562</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01096580366614976</v>
+        <v>0.01120269187726848</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0199737850010174</v>
+        <v>0.02031218940568429</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>74</v>
@@ -2360,19 +2360,19 @@
         <v>79649</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>63076</v>
+        <v>62879</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>98962</v>
+        <v>100724</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01197105274153456</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009480049205173447</v>
+        <v>0.009450557644098113</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0148736650576933</v>
+        <v>0.01513848588251815</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>473369</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>440646</v>
+        <v>442049</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>504085</v>
+        <v>508604</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4886806658147456</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4548989060463507</v>
+        <v>0.4563468537185226</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5203899374957403</v>
+        <v>0.5250551309240682</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>563</v>
@@ -2724,19 +2724,19 @@
         <v>603410</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>567085</v>
+        <v>568517</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>639310</v>
+        <v>641232</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4531027224288401</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4258257774254154</v>
+        <v>0.426901725998465</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4800604119554691</v>
+        <v>0.4815031551438261</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1010</v>
@@ -2745,19 +2745,19 @@
         <v>1076779</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1024356</v>
+        <v>1027213</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1125177</v>
+        <v>1123830</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4680841411269883</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4452951855570609</v>
+        <v>0.446537325203493</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4891228631028991</v>
+        <v>0.4885375433366159</v>
       </c>
     </row>
     <row r="5">
@@ -2774,19 +2774,19 @@
         <v>264706</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>237041</v>
+        <v>236276</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292588</v>
+        <v>293610</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2732682422731096</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2447077220742668</v>
+        <v>0.2439183467548278</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3020519331142725</v>
+        <v>0.3031068087851703</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>343</v>
@@ -2795,19 +2795,19 @@
         <v>366610</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>332275</v>
+        <v>334318</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>401773</v>
+        <v>402596</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2752889471227963</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2495063474572793</v>
+        <v>0.251040276590646</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3016926657780247</v>
+        <v>0.302310889900349</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>585</v>
@@ -2816,19 +2816,19 @@
         <v>631316</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>592363</v>
+        <v>589055</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>681240</v>
+        <v>675555</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2744380540542968</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2575047667511141</v>
+        <v>0.2560667012212395</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2961400737270399</v>
+        <v>0.2936687174871762</v>
       </c>
     </row>
     <row r="6">
@@ -2845,19 +2845,19 @@
         <v>153624</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>133007</v>
+        <v>131951</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>179001</v>
+        <v>179359</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1585933368637263</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1373090491619952</v>
+        <v>0.136218739233288</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.184790510164994</v>
+        <v>0.1851608796574722</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>224</v>
@@ -2866,19 +2866,19 @@
         <v>241638</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>213556</v>
+        <v>214119</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>272480</v>
+        <v>270037</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1814471487685489</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1603599630474368</v>
+        <v>0.1607827847234074</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2046061879232188</v>
+        <v>0.2027715689030571</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>367</v>
@@ -2887,19 +2887,19 @@
         <v>395263</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>358934</v>
+        <v>358545</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>429348</v>
+        <v>432206</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1718236997321297</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1560314641153323</v>
+        <v>0.1558623766413766</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1866408765364529</v>
+        <v>0.1878830223379725</v>
       </c>
     </row>
     <row r="7">
@@ -2916,19 +2916,19 @@
         <v>58182</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44143</v>
+        <v>44798</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76257</v>
+        <v>77719</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06006430020856033</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04557076816523942</v>
+        <v>0.0462474183011372</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07872326356224699</v>
+        <v>0.08023285157631442</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -2937,19 +2937,19 @@
         <v>75242</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60544</v>
+        <v>58745</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93561</v>
+        <v>93316</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05649968375534125</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04546242181285852</v>
+        <v>0.04411217198776168</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07025499732099193</v>
+        <v>0.07007153470555737</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>123</v>
@@ -2958,19 +2958,19 @@
         <v>133425</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114247</v>
+        <v>111937</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>160310</v>
+        <v>158469</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05800069833071266</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04966399913632389</v>
+        <v>0.04865964902316305</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06968795519807225</v>
+        <v>0.06888775676291091</v>
       </c>
     </row>
     <row r="8">
@@ -2987,19 +2987,19 @@
         <v>18786</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11348</v>
+        <v>11208</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29781</v>
+        <v>30590</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01939345483985808</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01171548892494965</v>
+        <v>0.01157006713337803</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03074406698789258</v>
+        <v>0.03157957654173476</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>42</v>
@@ -3008,19 +3008,19 @@
         <v>44828</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>33266</v>
+        <v>33365</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59984</v>
+        <v>60874</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03366149792447343</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02497930542799679</v>
+        <v>0.02505381863395548</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04504233176964573</v>
+        <v>0.04571081103148177</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>59</v>
@@ -3029,19 +3029,19 @@
         <v>63614</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>47098</v>
+        <v>48811</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>79496</v>
+        <v>82174</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02765340675587259</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02047400341452944</v>
+        <v>0.02121868168421766</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03455747557875947</v>
+        <v>0.03572181742899257</v>
       </c>
     </row>
     <row r="9">
@@ -3133,19 +3133,19 @@
         <v>1149812</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1104510</v>
+        <v>1103118</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1192106</v>
+        <v>1195562</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5864330870075836</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5633280823944464</v>
+        <v>0.5626180407659361</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6080042942127135</v>
+        <v>0.609767087837942</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>886</v>
@@ -3154,19 +3154,19 @@
         <v>953196</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>910772</v>
+        <v>911101</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>995285</v>
+        <v>997721</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.542604929425434</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5184554574031104</v>
+        <v>0.5186426570543422</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.566564312667087</v>
+        <v>0.5679510784945169</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1977</v>
@@ -3175,19 +3175,19 @@
         <v>2103007</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2040013</v>
+        <v>2043379</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2167293</v>
+        <v>2166296</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5657214957930993</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5487757320161348</v>
+        <v>0.5496811196596125</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5830147702546671</v>
+        <v>0.5827465998931132</v>
       </c>
     </row>
     <row r="11">
@@ -3204,19 +3204,19 @@
         <v>522702</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>478825</v>
+        <v>483992</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>560882</v>
+        <v>564391</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.266591288976002</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2442129948211915</v>
+        <v>0.2468480350974999</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2860639564889212</v>
+        <v>0.2878539481529637</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>459</v>
@@ -3225,19 +3225,19 @@
         <v>484984</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>450516</v>
+        <v>449151</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>524480</v>
+        <v>526400</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2760764878393584</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2564554866949876</v>
+        <v>0.2556784382207171</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2985590126999602</v>
+        <v>0.2996523818564704</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>958</v>
@@ -3246,19 +3246,19 @@
         <v>1007686</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>954746</v>
+        <v>951759</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1064011</v>
+        <v>1060349</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2710736485430841</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2568323869675282</v>
+        <v>0.2560287682741363</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2862252829512368</v>
+        <v>0.2852401335421249</v>
       </c>
     </row>
     <row r="12">
@@ -3275,19 +3275,19 @@
         <v>217804</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>193068</v>
+        <v>190177</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>250454</v>
+        <v>246837</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1110853726047685</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09846968472394346</v>
+        <v>0.09699495461160482</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1277376476625608</v>
+        <v>0.1258930354707422</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>189</v>
@@ -3296,19 +3296,19 @@
         <v>204360</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>178207</v>
+        <v>178968</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>231907</v>
+        <v>234891</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.116331688411153</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1014437370329005</v>
+        <v>0.1018769949295941</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1320125954259692</v>
+        <v>0.1337110812086846</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>386</v>
@@ -3317,19 +3317,19 @@
         <v>422164</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>382492</v>
+        <v>383840</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>467466</v>
+        <v>462731</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1135645904035148</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1028926411141204</v>
+        <v>0.1032551888816097</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1257511426422562</v>
+        <v>0.1244773601457022</v>
       </c>
     </row>
     <row r="13">
@@ -3346,19 +3346,19 @@
         <v>57825</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44816</v>
+        <v>43108</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74153</v>
+        <v>73830</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02949220878029373</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02285728141030753</v>
+        <v>0.02198639839021779</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03781982691686396</v>
+        <v>0.03765532565638611</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>78</v>
@@ -3367,19 +3367,19 @@
         <v>88832</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>70987</v>
+        <v>70385</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>110342</v>
+        <v>109181</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0505675109379042</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0404093886899113</v>
+        <v>0.04006662760838831</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06281220293687788</v>
+        <v>0.0621508956955984</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>133</v>
@@ -3388,19 +3388,19 @@
         <v>146657</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>122406</v>
+        <v>123402</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>174644</v>
+        <v>175650</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03945162909569269</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03292803649345339</v>
+        <v>0.0331958252338586</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04698033456628174</v>
+        <v>0.04725083132781049</v>
       </c>
     </row>
     <row r="14">
@@ -3417,19 +3417,19 @@
         <v>12545</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6208</v>
+        <v>6223</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21970</v>
+        <v>23777</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006398042631352162</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003166087076034848</v>
+        <v>0.00317412373207294</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01120537045108937</v>
+        <v>0.01212674956049667</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -3438,19 +3438,19 @@
         <v>25331</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17214</v>
+        <v>16555</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39607</v>
+        <v>38776</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01441938338615046</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009799092206155532</v>
+        <v>0.009423754076427888</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02254598864857412</v>
+        <v>0.02207344440316131</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -3459,19 +3459,19 @@
         <v>37875</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>25964</v>
+        <v>25384</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>53750</v>
+        <v>53341</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01018863616460918</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00698459846161699</v>
+        <v>0.006828417203063239</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01445893685941659</v>
+        <v>0.01434917877287509</v>
       </c>
     </row>
     <row r="15">
@@ -3563,19 +3563,19 @@
         <v>308331</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>286899</v>
+        <v>285344</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>331488</v>
+        <v>330679</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.643583013648953</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5988480350853844</v>
+        <v>0.5956014495394515</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6919197367391579</v>
+        <v>0.6902304312799192</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>263</v>
@@ -3584,19 +3584,19 @@
         <v>289814</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>268592</v>
+        <v>267380</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>311131</v>
+        <v>310927</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6363753028102616</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5897754479736144</v>
+        <v>0.5871131783531681</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6831816882211086</v>
+        <v>0.6827341178396739</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>546</v>
@@ -3605,19 +3605,19 @@
         <v>598145</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>565807</v>
+        <v>568553</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>628518</v>
+        <v>632622</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6400704427996402</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6054653858012422</v>
+        <v>0.6084036238483272</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6725720798041971</v>
+        <v>0.6769642141682595</v>
       </c>
     </row>
     <row r="17">
@@ -3634,19 +3634,19 @@
         <v>115730</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>96686</v>
+        <v>96273</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>136603</v>
+        <v>136473</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2415636372162307</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2018129222128596</v>
+        <v>0.2009512298306516</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2851333216967779</v>
+        <v>0.284861210558416</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>103</v>
@@ -3655,19 +3655,19 @@
         <v>117075</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>97795</v>
+        <v>99581</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>137366</v>
+        <v>138975</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2570736299666708</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2147393934445589</v>
+        <v>0.2186607877866867</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.301627873879213</v>
+        <v>0.3051614584389475</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>209</v>
@@ -3676,19 +3676,19 @@
         <v>232804</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>206382</v>
+        <v>203551</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>260812</v>
+        <v>259252</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2491222018739299</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2208472304723812</v>
+        <v>0.2178187633644969</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2790933948267479</v>
+        <v>0.277423610701286</v>
       </c>
     </row>
     <row r="18">
@@ -3705,19 +3705,19 @@
         <v>36442</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24790</v>
+        <v>25637</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52097</v>
+        <v>52251</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07606601295876353</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05174394868864787</v>
+        <v>0.05351206600595858</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.108742824647744</v>
+        <v>0.1090631274826418</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>31</v>
@@ -3726,19 +3726,19 @@
         <v>35838</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>24473</v>
+        <v>25077</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>48713</v>
+        <v>49655</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07869380152182001</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05373835067179991</v>
+        <v>0.05506406125077475</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1069652205006209</v>
+        <v>0.1090322470232359</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>61</v>
@@ -3747,19 +3747,19 @@
         <v>72280</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>56134</v>
+        <v>55839</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>92132</v>
+        <v>90942</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07734662669470876</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06006886603357022</v>
+        <v>0.05975245751784061</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0985892026132531</v>
+        <v>0.0973158259980644</v>
       </c>
     </row>
     <row r="19">
@@ -3776,19 +3776,19 @@
         <v>12158</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6671</v>
+        <v>6038</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22487</v>
+        <v>20927</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02537751467456173</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01392537878684091</v>
+        <v>0.01260255102263554</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04693703745321301</v>
+        <v>0.04368047524048073</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -3797,19 +3797,19 @@
         <v>11524</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5923</v>
+        <v>5868</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19955</v>
+        <v>19046</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02530503006112386</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01300515865037665</v>
+        <v>0.01288428134307317</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04381836740447887</v>
+        <v>0.04182111969537047</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -3818,19 +3818,19 @@
         <v>23682</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15849</v>
+        <v>16093</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34726</v>
+        <v>35445</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0253421903745331</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01696008323499531</v>
+        <v>0.01722083400191522</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03716019588771961</v>
+        <v>0.03792940452348606</v>
       </c>
     </row>
     <row r="20">
@@ -3847,19 +3847,19 @@
         <v>6424</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2127</v>
+        <v>2208</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14908</v>
+        <v>15375</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01340982150149102</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004440263040633622</v>
+        <v>0.004608087055042781</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03111683772882533</v>
+        <v>0.0320933458256698</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6555</v>
+        <v>5952</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002552235640123733</v>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01439434648900856</v>
+        <v>0.01306887446254623</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -3889,19 +3889,19 @@
         <v>7587</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3066</v>
+        <v>3054</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18435</v>
+        <v>16819</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008118538257188038</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003280540938034263</v>
+        <v>0.003267593436775546</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01972667037754873</v>
+        <v>0.0179979123464602</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>1931511</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1874650</v>
+        <v>1870467</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1994576</v>
+        <v>1990125</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5666850564653724</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5500026071702253</v>
+        <v>0.548775324548805</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5851874763688264</v>
+        <v>0.5838816194132436</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1712</v>
@@ -4014,19 +4014,19 @@
         <v>1846420</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1786149</v>
+        <v>1782593</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1907931</v>
+        <v>1905916</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5210215077262564</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5040141439770061</v>
+        <v>0.5030107234561755</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5383785426366567</v>
+        <v>0.5378100410142346</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3533</v>
@@ -4035,19 +4035,19 @@
         <v>3777932</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3688702</v>
+        <v>3696258</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3856346</v>
+        <v>3866247</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5434085965041372</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5305739551315225</v>
+        <v>0.5316608618892312</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.554687451400528</v>
+        <v>0.5561116587709246</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>903138</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>851177</v>
+        <v>849435</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>961950</v>
+        <v>956138</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.26497101140153</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2497263955132982</v>
+        <v>0.2492152689934439</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2822259539636173</v>
+        <v>0.2805208421249103</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>905</v>
@@ -4085,19 +4085,19 @@
         <v>968670</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>913196</v>
+        <v>909948</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1022075</v>
+        <v>1025184</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.273338512804344</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2576849905736704</v>
+        <v>0.2567685480833168</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.288408292052675</v>
+        <v>0.2892856509848907</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1752</v>
@@ -4106,19 +4106,19 @@
         <v>1871807</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1794727</v>
+        <v>1800961</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1952160</v>
+        <v>1950068</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2692362473885732</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2581491735448152</v>
+        <v>0.2590459424708244</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2807940187267777</v>
+        <v>0.280493068363295</v>
       </c>
     </row>
     <row r="24">
@@ -4135,19 +4135,19 @@
         <v>407870</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>368740</v>
+        <v>371610</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>452473</v>
+        <v>453000</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1196647224488631</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1081843674032427</v>
+        <v>0.1090263426763444</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1327509368993601</v>
+        <v>0.1329052893955536</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>444</v>
@@ -4156,19 +4156,19 @@
         <v>481837</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>437541</v>
+        <v>436253</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>524997</v>
+        <v>528735</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1359644028878475</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1234650846974413</v>
+        <v>0.123101481178541</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.148143293154047</v>
+        <v>0.1491982105386103</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>814</v>
@@ -4177,19 +4177,19 @@
         <v>889707</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>836177</v>
+        <v>836572</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>950461</v>
+        <v>956759</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1279732939373938</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1202736447793988</v>
+        <v>0.1203304444185402</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1367120356650303</v>
+        <v>0.1376179483555877</v>
       </c>
     </row>
     <row r="25">
@@ -4206,19 +4206,19 @@
         <v>128165</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>107485</v>
+        <v>107494</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>151767</v>
+        <v>150769</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03760234696214101</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03153504070515725</v>
+        <v>0.03153753208520407</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04452677245295687</v>
+        <v>0.04423417140222485</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>159</v>
@@ -4227,19 +4227,19 @@
         <v>175599</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>150757</v>
+        <v>149901</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>204526</v>
+        <v>206187</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04955029803360867</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04254047258597628</v>
+        <v>0.0422990640918468</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05771296162997477</v>
+        <v>0.05818161849431341</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>279</v>
@@ -4248,19 +4248,19 @@
         <v>303764</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>269026</v>
+        <v>269472</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>343312</v>
+        <v>339424</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.043692675296513</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03869608256079895</v>
+        <v>0.0387601845199386</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0493811866323983</v>
+        <v>0.04882192293986516</v>
       </c>
     </row>
     <row r="26">
@@ -4277,19 +4277,19 @@
         <v>37755</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>26008</v>
+        <v>25931</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>51563</v>
+        <v>53335</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01107686272209347</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007630401763843959</v>
+        <v>0.007607907595975487</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01512812996508861</v>
+        <v>0.01564796052831013</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>65</v>
@@ -4298,19 +4298,19 @@
         <v>71321</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>55443</v>
+        <v>55514</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>90207</v>
+        <v>91058</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02012527854794338</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01564477355694783</v>
+        <v>0.01566487476887303</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02545463501398804</v>
+        <v>0.02569473167064376</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>98</v>
@@ -4319,19 +4319,19 @@
         <v>109076</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>90012</v>
+        <v>90873</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>132980</v>
+        <v>134565</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01568918687338281</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0129471747946997</v>
+        <v>0.01307091963316528</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01912746566166601</v>
+        <v>0.01935547176720922</v>
       </c>
     </row>
     <row r="27">
@@ -4662,19 +4662,19 @@
         <v>323142</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>295408</v>
+        <v>295910</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>350368</v>
+        <v>348383</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4283730987995452</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3916079093911634</v>
+        <v>0.3922727888068066</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4644658352371475</v>
+        <v>0.4618344087303689</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>358</v>
@@ -4683,19 +4683,19 @@
         <v>393572</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>363273</v>
+        <v>361885</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>429316</v>
+        <v>422258</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3973710593743786</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3667795540123465</v>
+        <v>0.3653781893367067</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.433460073793541</v>
+        <v>0.4263340032080936</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>685</v>
@@ -4704,19 +4704,19 @@
         <v>716714</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>674978</v>
+        <v>676228</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>758079</v>
+        <v>760525</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4107745885070911</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3868542253512195</v>
+        <v>0.3875710203235025</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4344823358293454</v>
+        <v>0.4358844699349785</v>
       </c>
     </row>
     <row r="5">
@@ -4733,19 +4733,19 @@
         <v>241572</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>217423</v>
+        <v>217061</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>267608</v>
+        <v>266604</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3202400004161567</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.288226887919822</v>
+        <v>0.2877466959630637</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3547541513173515</v>
+        <v>0.3534241444263894</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>268</v>
@@ -4754,19 +4754,19 @@
         <v>294511</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>260989</v>
+        <v>266284</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>324496</v>
+        <v>325510</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2973538872404662</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2635085565446991</v>
+        <v>0.2688547179847598</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3276286186712066</v>
+        <v>0.3286518239635229</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>512</v>
@@ -4775,19 +4775,19 @@
         <v>536083</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>497090</v>
+        <v>494467</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>573595</v>
+        <v>571996</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3072485487005736</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2849003533605122</v>
+        <v>0.2833966498766822</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3287479489034353</v>
+        <v>0.3278317388161692</v>
       </c>
     </row>
     <row r="6">
@@ -4804,19 +4804,19 @@
         <v>128100</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>106457</v>
+        <v>109661</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>148304</v>
+        <v>149927</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1698155653290833</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1411243800460887</v>
+        <v>0.145372357925578</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1965994799233046</v>
+        <v>0.1987503391377611</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>171</v>
@@ -4825,19 +4825,19 @@
         <v>196350</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>170308</v>
+        <v>171389</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>223168</v>
+        <v>226365</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1982450138830971</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1719518329870372</v>
+        <v>0.173043126869996</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2253223629887648</v>
+        <v>0.2285505886627529</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>296</v>
@@ -4846,19 +4846,19 @@
         <v>324449</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>290168</v>
+        <v>290624</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>357351</v>
+        <v>356397</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1859537276004487</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1663058387540951</v>
+        <v>0.1665673492247533</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2048110045017338</v>
+        <v>0.2042642059031657</v>
       </c>
     </row>
     <row r="7">
@@ -4875,19 +4875,19 @@
         <v>50225</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37573</v>
+        <v>38699</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65268</v>
+        <v>66432</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06658012861284608</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04980877060884068</v>
+        <v>0.05130076019378228</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08652290067422688</v>
+        <v>0.08806517423414691</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>67</v>
@@ -4896,19 +4896,19 @@
         <v>77450</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61487</v>
+        <v>60269</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>96645</v>
+        <v>95680</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07819728579700938</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06208020083080191</v>
+        <v>0.06085058750798568</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09757789416212342</v>
+        <v>0.09660363844312665</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>121</v>
@@ -4917,19 +4917,19 @@
         <v>127674</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>105656</v>
+        <v>106800</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>150460</v>
+        <v>152265</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07317468381196604</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06055544615706018</v>
+        <v>0.06121096446432411</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08623430119351549</v>
+        <v>0.08726861538871873</v>
       </c>
     </row>
     <row r="8">
@@ -4946,19 +4946,19 @@
         <v>11309</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6281</v>
+        <v>6369</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18828</v>
+        <v>19427</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01499120684236864</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008326565811028501</v>
+        <v>0.008442743640602421</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02495996904572386</v>
+        <v>0.02575379490966325</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -4967,19 +4967,19 @@
         <v>28557</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18767</v>
+        <v>18447</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>41944</v>
+        <v>41499</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02883275370504873</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01894816525185979</v>
+        <v>0.01862525096426522</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04234935209393782</v>
+        <v>0.04189934664558422</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>36</v>
@@ -4988,19 +4988,19 @@
         <v>39866</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>27213</v>
+        <v>29172</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>53064</v>
+        <v>54612</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0228484513799206</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01559677285525892</v>
+        <v>0.01671942959690973</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03041273865972573</v>
+        <v>0.0313001796407593</v>
       </c>
     </row>
     <row r="9">
@@ -5092,19 +5092,19 @@
         <v>951728</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>905864</v>
+        <v>901195</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>996284</v>
+        <v>995126</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4596087488840451</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4374602795495814</v>
+        <v>0.4352055101252706</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4811255816960443</v>
+        <v>0.4805664001676019</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>924</v>
@@ -5113,19 +5113,19 @@
         <v>943182</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>897243</v>
+        <v>900445</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>986670</v>
+        <v>988733</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4759258089175274</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4527453256198892</v>
+        <v>0.4543606198767333</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4978696244055343</v>
+        <v>0.4989103568786337</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1821</v>
@@ -5134,19 +5134,19 @@
         <v>1894910</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1831700</v>
+        <v>1832317</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1961387</v>
+        <v>1962237</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4675882030049544</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4519905755811545</v>
+        <v>0.4521428094639212</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4839921419272861</v>
+        <v>0.4842018164075286</v>
       </c>
     </row>
     <row r="11">
@@ -5163,19 +5163,19 @@
         <v>718326</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>671614</v>
+        <v>677250</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>765394</v>
+        <v>768085</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3468941382533509</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3243361201342901</v>
+        <v>0.3270578667855872</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3696241255148138</v>
+        <v>0.3709237499440081</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>628</v>
@@ -5184,19 +5184,19 @@
         <v>662863</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>623804</v>
+        <v>618852</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>712066</v>
+        <v>705394</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3344777334973866</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3147690373749502</v>
+        <v>0.3122702240132326</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3593054026128458</v>
+        <v>0.3559388635858707</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1306</v>
@@ -5205,19 +5205,19 @@
         <v>1381188</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1322602</v>
+        <v>1319681</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1445409</v>
+        <v>1442417</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3408222029970269</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3263653952777725</v>
+        <v>0.3256446776531456</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3566693506865447</v>
+        <v>0.3559310246352246</v>
       </c>
     </row>
     <row r="12">
@@ -5234,19 +5234,19 @@
         <v>304902</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>273912</v>
+        <v>274276</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>336818</v>
+        <v>340695</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1472433284418821</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1322775882283703</v>
+        <v>0.132453476167264</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1626563279593924</v>
+        <v>0.1645285968516511</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>277</v>
@@ -5255,19 +5255,19 @@
         <v>298540</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>266721</v>
+        <v>267838</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>329364</v>
+        <v>333719</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1506421625787716</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1345863853650698</v>
+        <v>0.135150048394694</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1661955053931268</v>
+        <v>0.1683930274090242</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>563</v>
@@ -5276,19 +5276,19 @@
         <v>603442</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>558601</v>
+        <v>553345</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>649801</v>
+        <v>648568</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1489054441051351</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1378403601319141</v>
+        <v>0.1365435092738236</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1603451175407399</v>
+        <v>0.1600407843400121</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>72047</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56128</v>
+        <v>56226</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94004</v>
+        <v>91785</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03479271862544792</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02710525257957608</v>
+        <v>0.02715264154089527</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04539657142568988</v>
+        <v>0.04432504382342047</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>62</v>
@@ -5326,19 +5326,19 @@
         <v>65199</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50172</v>
+        <v>50848</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82005</v>
+        <v>82745</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03289923958868531</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02531669792930944</v>
+        <v>0.02565758794081697</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0413795242960855</v>
+        <v>0.04175268570016687</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>127</v>
@@ -5347,19 +5347,19 @@
         <v>137246</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>115436</v>
+        <v>116305</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>164301</v>
+        <v>165399</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03386675959411829</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02848492985273249</v>
+        <v>0.02869939332487053</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04054298562164159</v>
+        <v>0.04081397091735573</v>
       </c>
     </row>
     <row r="14">
@@ -5376,19 +5376,19 @@
         <v>23733</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14950</v>
+        <v>14582</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37055</v>
+        <v>35740</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01146106579527399</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007219435412818677</v>
+        <v>0.00704205932147578</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01789454033508929</v>
+        <v>0.01725968891088333</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -5397,19 +5397,19 @@
         <v>12000</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6396</v>
+        <v>5733</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21428</v>
+        <v>21296</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006055055417629037</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003227561797909303</v>
+        <v>0.002892752884246384</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01081266142634077</v>
+        <v>0.01074574623935643</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -5418,19 +5418,19 @@
         <v>35733</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23683</v>
+        <v>24295</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>51211</v>
+        <v>50162</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008817390298765368</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005844022536480841</v>
+        <v>0.005995013097156232</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0126368986862235</v>
+        <v>0.01237791708492036</v>
       </c>
     </row>
     <row r="15">
@@ -5522,19 +5522,19 @@
         <v>296938</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>273739</v>
+        <v>271952</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>321787</v>
+        <v>320139</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5438208460868426</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5013345321061822</v>
+        <v>0.4980607923400814</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5893310302585352</v>
+        <v>0.5863129710038412</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>302</v>
@@ -5543,19 +5543,19 @@
         <v>312584</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>288674</v>
+        <v>289498</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>335548</v>
+        <v>337670</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5712109027582939</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5275186434736145</v>
+        <v>0.5290245058464047</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6131748582856582</v>
+        <v>0.6170534849704828</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>577</v>
@@ -5564,19 +5564,19 @@
         <v>609521</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>575989</v>
+        <v>575858</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>643842</v>
+        <v>645317</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5575310126069707</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5268590101813356</v>
+        <v>0.5267386924830469</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5889239166659671</v>
+        <v>0.5902730208108656</v>
       </c>
     </row>
     <row r="17">
@@ -5593,19 +5593,19 @@
         <v>179768</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>159008</v>
+        <v>157396</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>205084</v>
+        <v>202209</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3292323897999722</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2912117412131886</v>
+        <v>0.288259373964274</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.375597333082694</v>
+        <v>0.3703314990610569</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>162</v>
@@ -5614,19 +5614,19 @@
         <v>173390</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>152331</v>
+        <v>151763</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>196995</v>
+        <v>196466</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3168500204135511</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2783675264631439</v>
+        <v>0.2773288461655458</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3599859235668366</v>
+        <v>0.3590188135466446</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>328</v>
@@ -5635,19 +5635,19 @@
         <v>353158</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>323981</v>
+        <v>321343</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>386376</v>
+        <v>388742</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3230343615067882</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2963467041225606</v>
+        <v>0.2939329915860995</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.353419696339749</v>
+        <v>0.3555836688489984</v>
       </c>
     </row>
     <row r="18">
@@ -5664,19 +5664,19 @@
         <v>65457</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>50839</v>
+        <v>50518</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>82756</v>
+        <v>84619</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1198806261781054</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09310737249238975</v>
+        <v>0.09251997305853463</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1515616068265644</v>
+        <v>0.1549732814829637</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>49</v>
@@ -5685,19 +5685,19 @@
         <v>48717</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>35574</v>
+        <v>36634</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>62027</v>
+        <v>64218</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08902389706951776</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06500672278665685</v>
+        <v>0.06694474392240533</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1133477213015035</v>
+        <v>0.1173514526540745</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>105</v>
@@ -5706,19 +5706,19 @@
         <v>114174</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>93844</v>
+        <v>94039</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>138052</v>
+        <v>135595</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.104435207447513</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08583907614202033</v>
+        <v>0.08601778032301173</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.126276375066617</v>
+        <v>0.1240294364177386</v>
       </c>
     </row>
     <row r="19">
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9165</v>
+        <v>10652</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005168332242264383</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01678430785410539</v>
+        <v>0.0195081506156834</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -5756,19 +5756,19 @@
         <v>10686</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6054</v>
+        <v>5488</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19457</v>
+        <v>19088</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01952768420352334</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01106365371156262</v>
+        <v>0.01002951016769076</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03555482097672497</v>
+        <v>0.03488025045605114</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -5777,19 +5777,19 @@
         <v>13508</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6900</v>
+        <v>7027</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22745</v>
+        <v>22835</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01235594447948861</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006311041273312187</v>
+        <v>0.00642762619968044</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02080514063437372</v>
+        <v>0.02088746795278109</v>
       </c>
     </row>
     <row r="20">
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5888</v>
+        <v>5837</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001897805692815425</v>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0107829615153174</v>
+        <v>0.01069030679256848</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8531</v>
+        <v>8062</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003387495555113858</v>
@@ -5839,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01558882785777927</v>
+        <v>0.01473283634241901</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12454</v>
+        <v>11585</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002643473959239499</v>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01139145811329886</v>
+        <v>0.01059686052650334</v>
       </c>
     </row>
     <row r="21">
@@ -5952,19 +5952,19 @@
         <v>1571807</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1518184</v>
+        <v>1515489</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1629844</v>
+        <v>1631221</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.466259116444407</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.450352499702187</v>
+        <v>0.4495530100325478</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.483475031529382</v>
+        <v>0.4838836280448668</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1584</v>
@@ -5973,19 +5973,19 @@
         <v>1649337</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1588429</v>
+        <v>1590652</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1710504</v>
+        <v>1714018</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4686346527206607</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4513284232034359</v>
+        <v>0.4519602082760409</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4860144197429094</v>
+        <v>0.4870126519754321</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3083</v>
@@ -5994,19 +5994,19 @@
         <v>3221145</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3131501</v>
+        <v>3136910</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3304446</v>
+        <v>3299302</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4674724565892852</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4544628571851349</v>
+        <v>0.4552478699919775</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4795617106561806</v>
+        <v>0.4788151808600269</v>
       </c>
     </row>
     <row r="23">
@@ -6023,19 +6023,19 @@
         <v>1139665</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1079556</v>
+        <v>1082391</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1191292</v>
+        <v>1195114</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3380690873898685</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3202383894941604</v>
+        <v>0.3210793977679245</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3533836815420121</v>
+        <v>0.3545173546386928</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1058</v>
@@ -6044,19 +6044,19 @@
         <v>1130763</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1075834</v>
+        <v>1075993</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1186256</v>
+        <v>1190193</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3212895125812045</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3056823227240843</v>
+        <v>0.3057274420402755</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3370569737325016</v>
+        <v>0.3381756577519109</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2146</v>
@@ -6065,19 +6065,19 @@
         <v>2270429</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2197572</v>
+        <v>2187953</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2354407</v>
+        <v>2349456</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3294986723922727</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3189251894529976</v>
+        <v>0.3175292926334421</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3416861169755387</v>
+        <v>0.3409675713797277</v>
       </c>
     </row>
     <row r="24">
@@ -6094,19 +6094,19 @@
         <v>498459</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>463029</v>
+        <v>457042</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>548228</v>
+        <v>539928</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.147862319213801</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1373524962923297</v>
+        <v>0.1355763149633835</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.162625665612812</v>
+        <v>0.1601636180447349</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>497</v>
@@ -6115,19 +6115,19 @@
         <v>543606</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>500874</v>
+        <v>500012</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>588956</v>
+        <v>590362</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1544576396385835</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1423158599465509</v>
+        <v>0.1420711028976546</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1673430390856658</v>
+        <v>0.1677424880057621</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>964</v>
@@ -6136,19 +6136,19 @@
         <v>1042065</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>974957</v>
+        <v>984460</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1107588</v>
+        <v>1106501</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1512309762701955</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1414918172315558</v>
+        <v>0.1428709911638789</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1607399967117703</v>
+        <v>0.1605822445539615</v>
       </c>
     </row>
     <row r="25">
@@ -6165,19 +6165,19 @@
         <v>125093</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>103688</v>
+        <v>103863</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>146085</v>
+        <v>149365</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03710744810750866</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0307578387335061</v>
+        <v>0.03080990569081518</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04333444881584302</v>
+        <v>0.04430754570050569</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>139</v>
@@ -6186,19 +6186,19 @@
         <v>153335</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>130325</v>
+        <v>130113</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>181047</v>
+        <v>179602</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04356784445436931</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03703003983270654</v>
+        <v>0.03696959012844842</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05144186372405986</v>
+        <v>0.05103125369659551</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>260</v>
@@ -6207,19 +6207,19 @@
         <v>278428</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>242363</v>
+        <v>247727</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>310595</v>
+        <v>317012</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04040719070366545</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03517327221694394</v>
+        <v>0.03595162989507916</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04507548923109331</v>
+        <v>0.0460066973599127</v>
       </c>
     </row>
     <row r="26">
@@ -6236,19 +6236,19 @@
         <v>36078</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>25447</v>
+        <v>25343</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>49990</v>
+        <v>51177</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01070202884441482</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007548635900214371</v>
+        <v>0.007517594937373901</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01482886129484623</v>
+        <v>0.01518101228623159</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>36</v>
@@ -6257,19 +6257,19 @@
         <v>42411</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>30039</v>
+        <v>29145</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>59299</v>
+        <v>57223</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01205035060518196</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008535105733639707</v>
+        <v>0.008281092950574141</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0168488268116415</v>
+        <v>0.01625903010715158</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>70</v>
@@ -6278,19 +6278,19 @@
         <v>78488</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>59594</v>
+        <v>61574</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>96797</v>
+        <v>98676</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01139070404458121</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008648686506868605</v>
+        <v>0.00893605458998323</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01404782927091536</v>
+        <v>0.01432051228030639</v>
       </c>
     </row>
     <row r="27">
@@ -6621,19 +6621,19 @@
         <v>256641</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>235114</v>
+        <v>233974</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>280059</v>
+        <v>280447</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4474163233293208</v>
+        <v>0.4474163233293209</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4098873687371272</v>
+        <v>0.4078997228323664</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4882428036276068</v>
+        <v>0.4889186985570491</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>560</v>
@@ -6642,19 +6642,19 @@
         <v>326302</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>306123</v>
+        <v>305504</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>351274</v>
+        <v>349759</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3995367287729416</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3748295881118051</v>
+        <v>0.3740717971451417</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.430113781562393</v>
+        <v>0.4282584087328672</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>854</v>
@@ -6663,19 +6663,19 @@
         <v>582942</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>550183</v>
+        <v>554648</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>614283</v>
+        <v>615291</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4192906560236552</v>
+        <v>0.4192906560236553</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3957281642263034</v>
+        <v>0.3989395748038557</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4418331924391551</v>
+        <v>0.4425577403527533</v>
       </c>
     </row>
     <row r="5">
@@ -6692,19 +6692,19 @@
         <v>147588</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>129264</v>
+        <v>127681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>168036</v>
+        <v>168485</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2572982481752363</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2253527671312336</v>
+        <v>0.2225934874712558</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2929468707010388</v>
+        <v>0.2937302846031462</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>378</v>
@@ -6713,19 +6713,19 @@
         <v>227675</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>207778</v>
+        <v>208539</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>245667</v>
+        <v>248763</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2787749100541473</v>
+        <v>0.2787749100541472</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2544111666123532</v>
+        <v>0.2553429493645285</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3008046840425745</v>
+        <v>0.3045958070640656</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>557</v>
@@ -6734,19 +6734,19 @@
         <v>375263</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>347303</v>
+        <v>346609</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>403946</v>
+        <v>402510</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2699141746975723</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2498031014558403</v>
+        <v>0.2493038669222531</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2905446137743533</v>
+        <v>0.2895120370236186</v>
       </c>
     </row>
     <row r="6">
@@ -6763,19 +6763,19 @@
         <v>97146</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>80173</v>
+        <v>81642</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>113712</v>
+        <v>117607</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1693599523906169</v>
+        <v>0.169359952390617</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1397705523510198</v>
+        <v>0.1423317885226445</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1982410493939404</v>
+        <v>0.205030351428295</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>280</v>
@@ -6784,19 +6784,19 @@
         <v>150006</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>134586</v>
+        <v>134549</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>167436</v>
+        <v>167754</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1836737611240479</v>
+        <v>0.1836737611240478</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1647921069790428</v>
+        <v>0.1647472762355403</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2050157390780719</v>
+        <v>0.2054052523326838</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>401</v>
@@ -6805,19 +6805,19 @@
         <v>247152</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>223293</v>
+        <v>222534</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>271314</v>
+        <v>272010</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1777682404315559</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1606067690355669</v>
+        <v>0.1600608241786598</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1951469819136836</v>
+        <v>0.1956474027633561</v>
       </c>
     </row>
     <row r="7">
@@ -6834,19 +6834,19 @@
         <v>53011</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41079</v>
+        <v>41489</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70637</v>
+        <v>70092</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.09241622852484058</v>
+        <v>0.09241622852484059</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07161610688583323</v>
+        <v>0.07233057128377714</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1231450796634396</v>
+        <v>0.1221958552411581</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>133</v>
@@ -6855,19 +6855,19 @@
         <v>73038</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61263</v>
+        <v>61439</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>86272</v>
+        <v>86763</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08943022030967833</v>
+        <v>0.08943022030967832</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07501264587612891</v>
+        <v>0.07522851981211993</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.105634597370946</v>
+        <v>0.1062360009067645</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>199</v>
@@ -6876,19 +6876,19 @@
         <v>126048</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>108816</v>
+        <v>108699</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>145738</v>
+        <v>145352</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09066217286898606</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07826794055306664</v>
+        <v>0.07818333272226959</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1048242876131015</v>
+        <v>0.1045469475842474</v>
       </c>
     </row>
     <row r="8">
@@ -6905,19 +6905,19 @@
         <v>19221</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12661</v>
+        <v>13280</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27746</v>
+        <v>28829</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0335092475799853</v>
+        <v>0.03350924757998531</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0220724472211673</v>
+        <v>0.02315093345986233</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04837130479804308</v>
+        <v>0.0502587910252511</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>68</v>
@@ -6926,19 +6926,19 @@
         <v>39679</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>31524</v>
+        <v>30270</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>49587</v>
+        <v>49947</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.04858437973918484</v>
+        <v>0.04858437973918483</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03859950889762497</v>
+        <v>0.03706368048857787</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06071588600262139</v>
+        <v>0.06115746303282874</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>93</v>
@@ -6947,19 +6947,19 @@
         <v>58900</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>47800</v>
+        <v>47258</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>72620</v>
+        <v>72475</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0423647559782304</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03438121380266376</v>
+        <v>0.03399109354233722</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05223304221113094</v>
+        <v>0.05212861653644809</v>
       </c>
     </row>
     <row r="9">
@@ -7051,19 +7051,19 @@
         <v>1201760</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1144832</v>
+        <v>1147337</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1259179</v>
+        <v>1254238</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.53894631964163</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5134159537073562</v>
+        <v>0.5145395314731014</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5646963822962444</v>
+        <v>0.5624809091641201</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1460</v>
@@ -7072,19 +7072,19 @@
         <v>1127495</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1079842</v>
+        <v>1081616</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1170700</v>
+        <v>1170770</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5200084481977185</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4980303530120405</v>
+        <v>0.4988488160957862</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5399346345536631</v>
+        <v>0.5399669929353892</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2453</v>
@@ -7093,19 +7093,19 @@
         <v>2329256</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2258726</v>
+        <v>2257910</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2401991</v>
+        <v>2393865</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5296100251070551</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5135734759653969</v>
+        <v>0.5133877554944284</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.546147930385838</v>
+        <v>0.5443004392589263</v>
       </c>
     </row>
     <row r="11">
@@ -7122,19 +7122,19 @@
         <v>694122</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>644314</v>
+        <v>642944</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>742529</v>
+        <v>743305</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3112888132147187</v>
+        <v>0.3112888132147188</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2889515948377092</v>
+        <v>0.2883374909707291</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3329977692389122</v>
+        <v>0.3333454746229246</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>985</v>
@@ -7143,19 +7143,19 @@
         <v>705450</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>668609</v>
+        <v>662271</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>750345</v>
+        <v>748874</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3253580938633572</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3083669129815497</v>
+        <v>0.3054439109421336</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3460643749438024</v>
+        <v>0.3453857015335809</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1657</v>
@@ -7164,19 +7164,19 @@
         <v>1399572</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1334229</v>
+        <v>1336290</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1458250</v>
+        <v>1463423</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3182249120479123</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3033677722484878</v>
+        <v>0.3038364151765764</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3315668037731475</v>
+        <v>0.3327428240130224</v>
       </c>
     </row>
     <row r="12">
@@ -7193,19 +7193,19 @@
         <v>239088</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>208614</v>
+        <v>208089</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>272732</v>
+        <v>269793</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1072224783189979</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09355576171213545</v>
+        <v>0.09332057120369963</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1223103597078753</v>
+        <v>0.1209925170885855</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>313</v>
@@ -7214,19 +7214,19 @@
         <v>225788</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>200720</v>
+        <v>202277</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>253187</v>
+        <v>251382</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.104135047606059</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09257343019844695</v>
+        <v>0.09329148762052017</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1167716692411581</v>
+        <v>0.1159388492494204</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>541</v>
@@ -7235,19 +7235,19 @@
         <v>464877</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>425227</v>
+        <v>425246</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>506782</v>
+        <v>506985</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1057003873819851</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09668513830647815</v>
+        <v>0.09668943571772755</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1152286362668216</v>
+        <v>0.115274796730723</v>
       </c>
     </row>
     <row r="13">
@@ -7264,19 +7264,19 @@
         <v>67692</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50752</v>
+        <v>52408</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85690</v>
+        <v>85609</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03035731991582339</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02276045298319339</v>
+        <v>0.02350322609294248</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03842885388979455</v>
+        <v>0.03839253762698068</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>113</v>
@@ -7285,19 +7285,19 @@
         <v>72870</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60743</v>
+        <v>60065</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88732</v>
+        <v>87290</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03360827241940661</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0280150060895944</v>
+        <v>0.0277024472331728</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04092359453029204</v>
+        <v>0.04025860844362399</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>182</v>
@@ -7306,19 +7306,19 @@
         <v>140562</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>120642</v>
+        <v>120658</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>164572</v>
+        <v>165206</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03196002643863721</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02743081842019755</v>
+        <v>0.02743448737854393</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03741934329563307</v>
+        <v>0.03756335341573298</v>
       </c>
     </row>
     <row r="14">
@@ -7335,19 +7335,19 @@
         <v>27171</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17893</v>
+        <v>18294</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38296</v>
+        <v>38820</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01218506890883008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008024343067678531</v>
+        <v>0.008204150934013613</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01717460195353786</v>
+        <v>0.01740958657607976</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -7356,19 +7356,19 @@
         <v>36622</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26213</v>
+        <v>26153</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51622</v>
+        <v>51033</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01689013791345871</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01208977841003064</v>
+        <v>0.01206171976120602</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02380863571333578</v>
+        <v>0.02353683938335011</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>76</v>
@@ -7377,19 +7377,19 @@
         <v>63792</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>50836</v>
+        <v>50330</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>84268</v>
+        <v>82486</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01450464902441034</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01155877804550566</v>
+        <v>0.01144358969715037</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01916033457631773</v>
+        <v>0.01875515146795164</v>
       </c>
     </row>
     <row r="15">
@@ -7481,19 +7481,19 @@
         <v>437379</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>409999</v>
+        <v>412524</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>462635</v>
+        <v>465284</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6152886302319208</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5767712106163603</v>
+        <v>0.5803230370069102</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6508179384936358</v>
+        <v>0.6545445327423528</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>657</v>
@@ -7502,19 +7502,19 @@
         <v>501879</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>477332</v>
+        <v>479792</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>521730</v>
+        <v>523495</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6829432008106798</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6495404958683703</v>
+        <v>0.6528869330612879</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7099548997653279</v>
+        <v>0.7123572568716332</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1059</v>
@@ -7523,19 +7523,19 @@
         <v>939259</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>907730</v>
+        <v>901020</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>976756</v>
+        <v>971747</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6496780537642496</v>
+        <v>0.6496780537642495</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6278695059538368</v>
+        <v>0.6232284166184614</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6756142071542807</v>
+        <v>0.6721496236484665</v>
       </c>
     </row>
     <row r="17">
@@ -7552,19 +7552,19 @@
         <v>200358</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>175469</v>
+        <v>176318</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>224724</v>
+        <v>225212</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.281855931970701</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2468436080628539</v>
+        <v>0.2480372152138827</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3161332113826973</v>
+        <v>0.3168201327406346</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>264</v>
@@ -7573,19 +7573,19 @@
         <v>171545</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>153427</v>
+        <v>151191</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>191247</v>
+        <v>189580</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2334333914032932</v>
+        <v>0.2334333914032931</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2087786608922788</v>
+        <v>0.2057361115799198</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2602428938328201</v>
+        <v>0.2579747682914444</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>470</v>
@@ -7594,19 +7594,19 @@
         <v>371903</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>342133</v>
+        <v>341402</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>402055</v>
+        <v>407319</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2572423213625987</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2366507871488537</v>
+        <v>0.2361453495299912</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.278097926416827</v>
+        <v>0.2817392610845447</v>
       </c>
     </row>
     <row r="18">
@@ -7623,19 +7623,19 @@
         <v>45825</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>33804</v>
+        <v>33845</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>59725</v>
+        <v>61188</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06446545006720183</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04755470696342144</v>
+        <v>0.04761128835444064</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08401899835475815</v>
+        <v>0.08607661795996774</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>52</v>
@@ -7644,19 +7644,19 @@
         <v>41081</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>30181</v>
+        <v>31288</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>55341</v>
+        <v>55539</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05590158138167414</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04106885213016725</v>
+        <v>0.04257609055516372</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.075306377783169</v>
+        <v>0.07557540052998699</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>99</v>
@@ -7665,19 +7665,19 @@
         <v>86906</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>70334</v>
+        <v>71814</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>105477</v>
+        <v>104879</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06011235899319949</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04864972256502768</v>
+        <v>0.04967322584058428</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07295761497086597</v>
+        <v>0.07254413596010986</v>
       </c>
     </row>
     <row r="19">
@@ -7694,19 +7694,19 @@
         <v>21992</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13156</v>
+        <v>13696</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34924</v>
+        <v>34433</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03093681960105335</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01850729355003551</v>
+        <v>0.01926693711577444</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04912961465640568</v>
+        <v>0.04843915367881894</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -7715,19 +7715,19 @@
         <v>15903</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10223</v>
+        <v>10599</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23525</v>
+        <v>24138</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02164092239405465</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01391110500441738</v>
+        <v>0.01442264517349758</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03201259009106858</v>
+        <v>0.03284621452607269</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -7736,19 +7736,19 @@
         <v>37895</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27303</v>
+        <v>26872</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>53085</v>
+        <v>53035</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0262116318801097</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01888527328978017</v>
+        <v>0.0185872789892224</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03671852146461874</v>
+        <v>0.03668357079131632</v>
       </c>
     </row>
     <row r="20">
@@ -7765,19 +7765,19 @@
         <v>5298</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1689</v>
+        <v>1580</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14361</v>
+        <v>13073</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.007453168129122849</v>
+        <v>0.00745316812912285</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002376405119744318</v>
+        <v>0.002222022281656041</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02020209362260235</v>
+        <v>0.01838991772452823</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -7786,19 +7786,19 @@
         <v>4469</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1874</v>
+        <v>1631</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9084</v>
+        <v>9275</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00608090401029805</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002550003754548031</v>
+        <v>0.002218970262560625</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01236113864884412</v>
+        <v>0.01262071933913783</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -7807,19 +7807,19 @@
         <v>9767</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5174</v>
+        <v>5358</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18561</v>
+        <v>18530</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006755633999842604</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003578827164759988</v>
+        <v>0.003705982413213564</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0128387076113963</v>
+        <v>0.0128172994767112</v>
       </c>
     </row>
     <row r="21">
@@ -7911,19 +7911,19 @@
         <v>1895780</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1828914</v>
+        <v>1827938</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1965262</v>
+        <v>1963908</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5394488378220246</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5204218980123984</v>
+        <v>0.520144095721499</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5592201924821406</v>
+        <v>0.5588348786208658</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2677</v>
@@ -7932,19 +7932,19 @@
         <v>1955677</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1906723</v>
+        <v>1899891</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2016111</v>
+        <v>2006945</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5257473973373407</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5125871440546395</v>
+        <v>0.5107503950086628</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.541994051751993</v>
+        <v>0.539529868591622</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4366</v>
@@ -7953,19 +7953,19 @@
         <v>3851457</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3769637</v>
+        <v>3776944</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3936926</v>
+        <v>3942064</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.532403497160721</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5210931291400682</v>
+        <v>0.5221032027648321</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5442182950835119</v>
+        <v>0.5449284915844281</v>
       </c>
     </row>
     <row r="23">
@@ -7982,19 +7982,19 @@
         <v>1042068</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>979837</v>
+        <v>985785</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1098611</v>
+        <v>1103387</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.296522900277294</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2788151190267388</v>
+        <v>0.2805075529894738</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3126123307230952</v>
+        <v>0.3139713660641086</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1627</v>
@@ -8003,19 +8003,19 @@
         <v>1104670</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1056970</v>
+        <v>1057187</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1153724</v>
+        <v>1154601</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2969700632517145</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2841467515707634</v>
+        <v>0.2842050904841377</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3101571610206865</v>
+        <v>0.3103930999037547</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2684</v>
@@ -8024,19 +8024,19 @@
         <v>2146738</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2065652</v>
+        <v>2067962</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2217882</v>
+        <v>2221637</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2967528334357408</v>
+        <v>0.2967528334357407</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2855439514765565</v>
+        <v>0.2858633232398907</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3065874290921019</v>
+        <v>0.3071064183508133</v>
       </c>
     </row>
     <row r="24">
@@ -8053,19 +8053,19 @@
         <v>382059</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>345939</v>
+        <v>345881</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>420778</v>
+        <v>423552</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1087159421340587</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09843781251082412</v>
+        <v>0.09842136622238379</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1197332566139367</v>
+        <v>0.1205228605347403</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>645</v>
@@ -8074,19 +8074,19 @@
         <v>416875</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>382447</v>
+        <v>384721</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>448638</v>
+        <v>454071</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1120692350014801</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1028137963976683</v>
+        <v>0.1034250912263549</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1206081184878925</v>
+        <v>0.1220684826777795</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1041</v>
@@ -8095,19 +8095,19 @@
         <v>798935</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>749540</v>
+        <v>749760</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>847068</v>
+        <v>848603</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1104402200021057</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1036122009521426</v>
+        <v>0.1036426088159012</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1170938826030253</v>
+        <v>0.1173060789648664</v>
       </c>
     </row>
     <row r="25">
@@ -8124,19 +8124,19 @@
         <v>142694</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>118383</v>
+        <v>119134</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>169713</v>
+        <v>167016</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04060384465514015</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03368610150404798</v>
+        <v>0.03389975623104322</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04829228931544663</v>
+        <v>0.04752477111468702</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>270</v>
@@ -8145,19 +8145,19 @@
         <v>161811</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>143825</v>
+        <v>144649</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>182157</v>
+        <v>181857</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04349999782419848</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03866477851100854</v>
+        <v>0.03888623860993406</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04896960831950243</v>
+        <v>0.04888878264039258</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>425</v>
@@ -8166,19 +8166,19 @@
         <v>304505</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>272942</v>
+        <v>275725</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>336574</v>
+        <v>334536</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0420930592896261</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0377299397019171</v>
+        <v>0.03811462093355651</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04652603388603904</v>
+        <v>0.04624439848559118</v>
       </c>
     </row>
     <row r="26">
@@ -8195,19 +8195,19 @@
         <v>51690</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>38562</v>
+        <v>39199</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>66248</v>
+        <v>66934</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01470847511148251</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01097296690331841</v>
+        <v>0.01115421396273251</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01885109608860385</v>
+        <v>0.01904624623703188</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>122</v>
@@ -8216,19 +8216,19 @@
         <v>80769</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>67521</v>
+        <v>66579</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>98505</v>
+        <v>98386</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02171330658526626</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01815173770916597</v>
+        <v>0.01789865350326987</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02648124431591371</v>
+        <v>0.02644925633572512</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>181</v>
@@ -8237,19 +8237,19 @@
         <v>132459</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>112975</v>
+        <v>112728</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>155435</v>
+        <v>154268</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.01831039011180633</v>
+        <v>0.01831039011180632</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01561698333255202</v>
+        <v>0.01558284002440351</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02148643455483451</v>
+        <v>0.02132507668537812</v>
       </c>
     </row>
     <row r="27">
